--- a/output/StructureDefinition-secureEndpoint.xlsx
+++ b/output/StructureDefinition-secureEndpoint.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -324,16 +324,14 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -683,7 +681,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -1234,13 +1232,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1267,11 +1265,13 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y6" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
@@ -1301,7 +1301,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>99</v>

--- a/output/StructureDefinition-secureEndpoint.xlsx
+++ b/output/StructureDefinition-secureEndpoint.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureEndpoint.xlsx
+++ b/output/StructureDefinition-secureEndpoint.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureEndpoint.xlsx
+++ b/output/StructureDefinition-secureEndpoint.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/secureEndpoint</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/secureEndpoint</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureEndpoint.xlsx
+++ b/output/StructureDefinition-secureEndpoint.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureEndpoint.xlsx
+++ b/output/StructureDefinition-secureEndpoint.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/secureEndpoint</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/secureEndpoint</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-secureEndpoint.xlsx
+++ b/output/StructureDefinition-secureEndpoint.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/secureEndpoint</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/secureEndpoint</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
